--- a/SelfReport Material/SelfRepData.xlsx
+++ b/SelfReport Material/SelfRepData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfv563\Git\Dissertation\SelfReport Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FCE94-5DD7-44EC-9A42-645F227C082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B94EF-CFE6-4BE1-A5ED-2AFE42C9FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DB1D881F-0057-42E0-BAC4-450ECC7A4781}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C402E6-3247-47A2-A56E-137BCF563EBE}">
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AV43" sqref="AV43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4845,6 +4845,141 @@
       <c r="B31" s="1">
         <v>3</v>
       </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>2</v>
+      </c>
+      <c r="V31" s="1">
+        <v>2</v>
+      </c>
+      <c r="W31" s="1">
+        <v>3</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -5145,6 +5280,144 @@
       <c r="B34" s="1">
         <v>3</v>
       </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>3</v>
+      </c>
+      <c r="X34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -5445,6 +5718,144 @@
       <c r="B37" s="1">
         <v>3</v>
       </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>3</v>
+      </c>
+      <c r="W37" s="1">
+        <v>3</v>
+      </c>
+      <c r="X37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -5745,6 +6156,144 @@
       <c r="B40" s="1">
         <v>3</v>
       </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+      <c r="N40" s="1">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>2</v>
+      </c>
+      <c r="V40" s="1">
+        <v>4</v>
+      </c>
+      <c r="W40" s="1">
+        <v>4</v>
+      </c>
+      <c r="X40" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -6045,6 +6594,144 @@
       <c r="B43" s="1">
         <v>3</v>
       </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>2</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2</v>
+      </c>
+      <c r="W43" s="1">
+        <v>2</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -6344,6 +7031,144 @@
       </c>
       <c r="B46" s="1">
         <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>3</v>
+      </c>
+      <c r="N46" s="1">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2</v>
+      </c>
+      <c r="R46" s="1">
+        <v>2</v>
+      </c>
+      <c r="S46" s="1">
+        <v>2</v>
+      </c>
+      <c r="T46" s="1">
+        <v>2</v>
+      </c>
+      <c r="U46" s="1">
+        <v>2</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>2</v>
+      </c>
+      <c r="X46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SelfReport Material/SelfRepData.xlsx
+++ b/SelfReport Material/SelfRepData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfv563\Git\Dissertation\SelfReport Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B94EF-CFE6-4BE1-A5ED-2AFE42C9FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E584B9-2BD9-4F66-96D2-75A2A0D896B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DB1D881F-0057-42E0-BAC4-450ECC7A4781}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C402E6-3247-47A2-A56E-137BCF563EBE}">
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AV43" sqref="AV43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4107,6 +4107,144 @@
       <c r="B25" s="1">
         <v>3</v>
       </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -4969,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="AR31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="1">
         <v>3</v>
@@ -4978,6 +5116,9 @@
         <v>4</v>
       </c>
       <c r="AU31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="1">
         <v>0</v>
       </c>
     </row>
